--- a/80s电影Top1000.xlsx
+++ b/80s电影Top1000.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python\PycharmProjects\pythonworm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="80s电影Top1000" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="80s电影Top1000" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3844" uniqueCount="2877">
   <si>
     <t>电影名</t>
   </si>
@@ -8651,20 +8656,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -8680,15 +8691,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -8976,20 +8996,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D976"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A952" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="43.625" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9003,7 +9023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -9017,7 +9037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -9031,7 +9051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -9045,7 +9065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -9059,7 +9079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -9073,7 +9093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -9087,7 +9107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -9101,7 +9121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -9115,7 +9135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -9129,7 +9149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -9143,7 +9163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -9157,7 +9177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -9171,7 +9191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -9185,7 +9205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -9199,7 +9219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -9213,7 +9233,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -9227,7 +9247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -9241,7 +9261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -9255,7 +9275,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -9269,7 +9289,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -9283,7 +9303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -9297,7 +9317,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -9311,7 +9331,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -9325,7 +9345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -9339,7 +9359,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -9353,7 +9373,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -9367,7 +9387,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -9381,7 +9401,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -9395,7 +9415,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -9409,7 +9429,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -9423,7 +9443,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -9437,7 +9457,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -9451,7 +9471,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -9465,7 +9485,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -9479,7 +9499,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -9489,9 +9509,8 @@
       <c r="C36" t="s">
         <v>110</v>
       </c>
-      <c r="D36" t="s"/>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -9505,7 +9524,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -9515,9 +9534,8 @@
       <c r="C38" t="s">
         <v>115</v>
       </c>
-      <c r="D38" t="s"/>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -9531,7 +9549,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -9545,7 +9563,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -9559,7 +9577,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -9569,9 +9587,8 @@
       <c r="C42" t="s">
         <v>126</v>
       </c>
-      <c r="D42" t="s"/>
-    </row>
-    <row r="43" spans="1:4">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -9585,7 +9602,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>130</v>
       </c>
@@ -9595,9 +9612,8 @@
       <c r="C44" t="s">
         <v>131</v>
       </c>
-      <c r="D44" t="s"/>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -9611,7 +9627,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -9625,7 +9641,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -9639,7 +9655,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -9653,7 +9669,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -9667,7 +9683,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -9681,7 +9697,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -9695,7 +9711,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -9709,7 +9725,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -9723,7 +9739,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -9737,7 +9753,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -9751,7 +9767,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -9765,7 +9781,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>169</v>
       </c>
@@ -9779,7 +9795,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -9793,7 +9809,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>174</v>
       </c>
@@ -9807,7 +9823,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>177</v>
       </c>
@@ -9821,7 +9837,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>180</v>
       </c>
@@ -9835,7 +9851,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>183</v>
       </c>
@@ -9849,7 +9865,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -9863,7 +9879,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -9877,7 +9893,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -9887,9 +9903,8 @@
       <c r="C65" t="s">
         <v>193</v>
       </c>
-      <c r="D65" t="s"/>
-    </row>
-    <row r="66" spans="1:4">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -9903,7 +9918,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -9913,9 +9928,8 @@
       <c r="C67" t="s">
         <v>198</v>
       </c>
-      <c r="D67" t="s"/>
-    </row>
-    <row r="68" spans="1:4">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>199</v>
       </c>
@@ -9929,7 +9943,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -9943,7 +9957,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>205</v>
       </c>
@@ -9957,7 +9971,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>208</v>
       </c>
@@ -9971,7 +9985,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>211</v>
       </c>
@@ -9985,7 +9999,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -9999,7 +10013,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -10013,7 +10027,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -10027,7 +10041,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>224</v>
       </c>
@@ -10041,7 +10055,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>227</v>
       </c>
@@ -10055,7 +10069,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>230</v>
       </c>
@@ -10069,7 +10083,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>233</v>
       </c>
@@ -10083,7 +10097,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>236</v>
       </c>
@@ -10097,7 +10111,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -10111,7 +10125,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>242</v>
       </c>
@@ -10125,7 +10139,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>245</v>
       </c>
@@ -10139,7 +10153,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -10153,7 +10167,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>251</v>
       </c>
@@ -10167,7 +10181,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>254</v>
       </c>
@@ -10181,7 +10195,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>257</v>
       </c>
@@ -10195,7 +10209,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>260</v>
       </c>
@@ -10209,7 +10223,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>263</v>
       </c>
@@ -10223,7 +10237,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>266</v>
       </c>
@@ -10237,7 +10251,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>269</v>
       </c>
@@ -10251,7 +10265,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -10265,7 +10279,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>275</v>
       </c>
@@ -10279,7 +10293,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>278</v>
       </c>
@@ -10293,7 +10307,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>281</v>
       </c>
@@ -10307,7 +10321,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>284</v>
       </c>
@@ -10321,7 +10335,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>287</v>
       </c>
@@ -10335,7 +10349,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>290</v>
       </c>
@@ -10349,7 +10363,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>293</v>
       </c>
@@ -10363,7 +10377,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>296</v>
       </c>
@@ -10377,7 +10391,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>299</v>
       </c>
@@ -10391,7 +10405,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>302</v>
       </c>
@@ -10405,7 +10419,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>305</v>
       </c>
@@ -10419,7 +10433,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>309</v>
       </c>
@@ -10433,7 +10447,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>312</v>
       </c>
@@ -10447,7 +10461,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>315</v>
       </c>
@@ -10461,7 +10475,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>318</v>
       </c>
@@ -10475,7 +10489,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>321</v>
       </c>
@@ -10489,7 +10503,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>324</v>
       </c>
@@ -10503,7 +10517,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>327</v>
       </c>
@@ -10517,7 +10531,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>330</v>
       </c>
@@ -10531,7 +10545,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>333</v>
       </c>
@@ -10545,7 +10559,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>336</v>
       </c>
@@ -10559,7 +10573,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>339</v>
       </c>
@@ -10573,7 +10587,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>342</v>
       </c>
@@ -10587,7 +10601,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>345</v>
       </c>
@@ -10601,7 +10615,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>348</v>
       </c>
@@ -10615,7 +10629,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>351</v>
       </c>
@@ -10629,7 +10643,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>354</v>
       </c>
@@ -10643,7 +10657,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>357</v>
       </c>
@@ -10657,7 +10671,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>360</v>
       </c>
@@ -10671,7 +10685,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>363</v>
       </c>
@@ -10685,7 +10699,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>366</v>
       </c>
@@ -10699,7 +10713,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>369</v>
       </c>
@@ -10713,7 +10727,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>372</v>
       </c>
@@ -10727,7 +10741,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>375</v>
       </c>
@@ -10741,7 +10755,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>378</v>
       </c>
@@ -10755,7 +10769,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>381</v>
       </c>
@@ -10769,7 +10783,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>384</v>
       </c>
@@ -10783,7 +10797,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>387</v>
       </c>
@@ -10797,7 +10811,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>390</v>
       </c>
@@ -10811,7 +10825,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>393</v>
       </c>
@@ -10821,9 +10835,8 @@
       <c r="C132" t="s">
         <v>394</v>
       </c>
-      <c r="D132" t="s"/>
-    </row>
-    <row r="133" spans="1:4">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>395</v>
       </c>
@@ -10837,7 +10850,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>398</v>
       </c>
@@ -10847,9 +10860,8 @@
       <c r="C134" t="s">
         <v>399</v>
       </c>
-      <c r="D134" t="s"/>
-    </row>
-    <row r="135" spans="1:4">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>400</v>
       </c>
@@ -10863,7 +10875,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>403</v>
       </c>
@@ -10873,9 +10885,8 @@
       <c r="C136" t="s">
         <v>404</v>
       </c>
-      <c r="D136" t="s"/>
-    </row>
-    <row r="137" spans="1:4">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>405</v>
       </c>
@@ -10885,9 +10896,8 @@
       <c r="C137" t="s">
         <v>406</v>
       </c>
-      <c r="D137" t="s"/>
-    </row>
-    <row r="138" spans="1:4">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>407</v>
       </c>
@@ -10901,7 +10911,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>410</v>
       </c>
@@ -10915,7 +10925,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>413</v>
       </c>
@@ -10929,7 +10939,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>416</v>
       </c>
@@ -10939,9 +10949,8 @@
       <c r="C141" t="s">
         <v>417</v>
       </c>
-      <c r="D141" t="s"/>
-    </row>
-    <row r="142" spans="1:4">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>418</v>
       </c>
@@ -10955,7 +10964,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>421</v>
       </c>
@@ -10969,7 +10978,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>424</v>
       </c>
@@ -10983,7 +10992,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>427</v>
       </c>
@@ -10997,7 +11006,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>430</v>
       </c>
@@ -11011,7 +11020,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>433</v>
       </c>
@@ -11025,7 +11034,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>436</v>
       </c>
@@ -11039,7 +11048,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>439</v>
       </c>
@@ -11053,7 +11062,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>442</v>
       </c>
@@ -11067,7 +11076,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>445</v>
       </c>
@@ -11081,7 +11090,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>448</v>
       </c>
@@ -11095,7 +11104,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>451</v>
       </c>
@@ -11109,7 +11118,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>454</v>
       </c>
@@ -11123,7 +11132,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>458</v>
       </c>
@@ -11137,7 +11146,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>461</v>
       </c>
@@ -11151,7 +11160,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>464</v>
       </c>
@@ -11165,7 +11174,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>467</v>
       </c>
@@ -11179,7 +11188,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>470</v>
       </c>
@@ -11193,7 +11202,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>473</v>
       </c>
@@ -11207,7 +11216,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>476</v>
       </c>
@@ -11221,7 +11230,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>479</v>
       </c>
@@ -11235,7 +11244,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>482</v>
       </c>
@@ -11249,7 +11258,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>485</v>
       </c>
@@ -11263,7 +11272,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>488</v>
       </c>
@@ -11277,7 +11286,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>491</v>
       </c>
@@ -11291,7 +11300,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>494</v>
       </c>
@@ -11305,7 +11314,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>496</v>
       </c>
@@ -11319,7 +11328,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>499</v>
       </c>
@@ -11333,7 +11342,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>502</v>
       </c>
@@ -11347,7 +11356,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>505</v>
       </c>
@@ -11361,7 +11370,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>508</v>
       </c>
@@ -11375,7 +11384,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>511</v>
       </c>
@@ -11389,7 +11398,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>514</v>
       </c>
@@ -11403,7 +11412,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>517</v>
       </c>
@@ -11417,7 +11426,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>520</v>
       </c>
@@ -11431,7 +11440,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>523</v>
       </c>
@@ -11445,7 +11454,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>526</v>
       </c>
@@ -11459,7 +11468,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>529</v>
       </c>
@@ -11473,7 +11482,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>532</v>
       </c>
@@ -11487,7 +11496,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>535</v>
       </c>
@@ -11501,7 +11510,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>538</v>
       </c>
@@ -11515,7 +11524,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>541</v>
       </c>
@@ -11529,7 +11538,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>544</v>
       </c>
@@ -11543,7 +11552,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>547</v>
       </c>
@@ -11557,7 +11566,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>550</v>
       </c>
@@ -11571,7 +11580,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>553</v>
       </c>
@@ -11585,7 +11594,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>556</v>
       </c>
@@ -11599,7 +11608,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>559</v>
       </c>
@@ -11613,7 +11622,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>562</v>
       </c>
@@ -11627,7 +11636,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>565</v>
       </c>
@@ -11641,7 +11650,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>568</v>
       </c>
@@ -11655,7 +11664,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>571</v>
       </c>
@@ -11669,7 +11678,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>574</v>
       </c>
@@ -11683,7 +11692,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>577</v>
       </c>
@@ -11697,7 +11706,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>580</v>
       </c>
@@ -11711,7 +11720,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>583</v>
       </c>
@@ -11725,7 +11734,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>586</v>
       </c>
@@ -11739,7 +11748,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>589</v>
       </c>
@@ -11753,7 +11762,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>592</v>
       </c>
@@ -11767,7 +11776,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>595</v>
       </c>
@@ -11781,7 +11790,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>598</v>
       </c>
@@ -11795,7 +11804,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>601</v>
       </c>
@@ -11809,7 +11818,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>604</v>
       </c>
@@ -11823,7 +11832,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>607</v>
       </c>
@@ -11837,7 +11846,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>610</v>
       </c>
@@ -11851,7 +11860,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>613</v>
       </c>
@@ -11865,7 +11874,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>616</v>
       </c>
@@ -11879,7 +11888,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>619</v>
       </c>
@@ -11893,7 +11902,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>622</v>
       </c>
@@ -11907,7 +11916,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>625</v>
       </c>
@@ -11921,7 +11930,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>628</v>
       </c>
@@ -11935,7 +11944,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>631</v>
       </c>
@@ -11949,7 +11958,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>634</v>
       </c>
@@ -11963,7 +11972,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>637</v>
       </c>
@@ -11977,7 +11986,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>640</v>
       </c>
@@ -11991,7 +12000,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>643</v>
       </c>
@@ -12005,7 +12014,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>646</v>
       </c>
@@ -12019,7 +12028,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>649</v>
       </c>
@@ -12033,7 +12042,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>652</v>
       </c>
@@ -12047,7 +12056,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>655</v>
       </c>
@@ -12061,7 +12070,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>658</v>
       </c>
@@ -12075,7 +12084,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>661</v>
       </c>
@@ -12089,7 +12098,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>664</v>
       </c>
@@ -12103,7 +12112,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>667</v>
       </c>
@@ -12117,7 +12126,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>670</v>
       </c>
@@ -12131,7 +12140,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>673</v>
       </c>
@@ -12145,7 +12154,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>676</v>
       </c>
@@ -12155,9 +12164,8 @@
       <c r="C228" t="s">
         <v>677</v>
       </c>
-      <c r="D228" t="s"/>
-    </row>
-    <row r="229" spans="1:4">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>678</v>
       </c>
@@ -12171,7 +12179,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>681</v>
       </c>
@@ -12185,7 +12193,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>684</v>
       </c>
@@ -12199,7 +12207,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>687</v>
       </c>
@@ -12213,7 +12221,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>690</v>
       </c>
@@ -12227,7 +12235,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>693</v>
       </c>
@@ -12241,7 +12249,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>696</v>
       </c>
@@ -12255,7 +12263,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>699</v>
       </c>
@@ -12265,9 +12273,8 @@
       <c r="C236" t="s">
         <v>700</v>
       </c>
-      <c r="D236" t="s"/>
-    </row>
-    <row r="237" spans="1:4">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>701</v>
       </c>
@@ -12277,9 +12284,8 @@
       <c r="C237" t="s">
         <v>702</v>
       </c>
-      <c r="D237" t="s"/>
-    </row>
-    <row r="238" spans="1:4">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>703</v>
       </c>
@@ -12289,9 +12295,8 @@
       <c r="C238" t="s">
         <v>704</v>
       </c>
-      <c r="D238" t="s"/>
-    </row>
-    <row r="239" spans="1:4">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>705</v>
       </c>
@@ -12305,7 +12310,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>708</v>
       </c>
@@ -12319,7 +12324,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>711</v>
       </c>
@@ -12329,9 +12334,8 @@
       <c r="C241" t="s">
         <v>712</v>
       </c>
-      <c r="D241" t="s"/>
-    </row>
-    <row r="242" spans="1:4">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>713</v>
       </c>
@@ -12345,7 +12349,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>716</v>
       </c>
@@ -12359,7 +12363,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>719</v>
       </c>
@@ -12373,7 +12377,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>722</v>
       </c>
@@ -12387,7 +12391,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>725</v>
       </c>
@@ -12401,7 +12405,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>728</v>
       </c>
@@ -12415,7 +12419,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>731</v>
       </c>
@@ -12429,7 +12433,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>734</v>
       </c>
@@ -12443,7 +12447,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>737</v>
       </c>
@@ -12457,7 +12461,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>740</v>
       </c>
@@ -12471,7 +12475,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>743</v>
       </c>
@@ -12485,7 +12489,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>746</v>
       </c>
@@ -12499,7 +12503,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>749</v>
       </c>
@@ -12513,7 +12517,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>752</v>
       </c>
@@ -12527,7 +12531,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>755</v>
       </c>
@@ -12541,7 +12545,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>758</v>
       </c>
@@ -12551,9 +12555,8 @@
       <c r="C257" t="s">
         <v>760</v>
       </c>
-      <c r="D257" t="s"/>
-    </row>
-    <row r="258" spans="1:4">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>761</v>
       </c>
@@ -12567,7 +12570,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>764</v>
       </c>
@@ -12581,7 +12584,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>767</v>
       </c>
@@ -12595,7 +12598,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>770</v>
       </c>
@@ -12609,7 +12612,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>773</v>
       </c>
@@ -12623,7 +12626,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>776</v>
       </c>
@@ -12637,7 +12640,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>779</v>
       </c>
@@ -12651,7 +12654,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>782</v>
       </c>
@@ -12665,7 +12668,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>785</v>
       </c>
@@ -12679,7 +12682,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>788</v>
       </c>
@@ -12693,7 +12696,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>791</v>
       </c>
@@ -12707,7 +12710,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>794</v>
       </c>
@@ -12721,7 +12724,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>797</v>
       </c>
@@ -12735,7 +12738,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>800</v>
       </c>
@@ -12749,7 +12752,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>803</v>
       </c>
@@ -12763,7 +12766,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>806</v>
       </c>
@@ -12777,7 +12780,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>809</v>
       </c>
@@ -12791,7 +12794,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>812</v>
       </c>
@@ -12805,7 +12808,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>815</v>
       </c>
@@ -12819,7 +12822,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>818</v>
       </c>
@@ -12833,7 +12836,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>821</v>
       </c>
@@ -12847,7 +12850,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>824</v>
       </c>
@@ -12861,7 +12864,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>827</v>
       </c>
@@ -12875,7 +12878,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>830</v>
       </c>
@@ -12889,7 +12892,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>833</v>
       </c>
@@ -12903,7 +12906,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>836</v>
       </c>
@@ -12917,7 +12920,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>839</v>
       </c>
@@ -12931,7 +12934,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>842</v>
       </c>
@@ -12945,7 +12948,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>845</v>
       </c>
@@ -12959,7 +12962,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>848</v>
       </c>
@@ -12973,7 +12976,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>851</v>
       </c>
@@ -12987,7 +12990,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>854</v>
       </c>
@@ -13001,7 +13004,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>857</v>
       </c>
@@ -13015,7 +13018,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>860</v>
       </c>
@@ -13029,7 +13032,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>863</v>
       </c>
@@ -13043,7 +13046,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>866</v>
       </c>
@@ -13057,7 +13060,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>869</v>
       </c>
@@ -13071,7 +13074,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>872</v>
       </c>
@@ -13085,7 +13088,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>875</v>
       </c>
@@ -13099,7 +13102,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>878</v>
       </c>
@@ -13113,7 +13116,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>881</v>
       </c>
@@ -13127,7 +13130,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>884</v>
       </c>
@@ -13141,7 +13144,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>887</v>
       </c>
@@ -13155,7 +13158,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>890</v>
       </c>
@@ -13169,7 +13172,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>893</v>
       </c>
@@ -13183,7 +13186,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>896</v>
       </c>
@@ -13197,7 +13200,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>899</v>
       </c>
@@ -13211,7 +13214,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>902</v>
       </c>
@@ -13225,7 +13228,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>905</v>
       </c>
@@ -13239,7 +13242,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>908</v>
       </c>
@@ -13253,7 +13256,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>911</v>
       </c>
@@ -13263,9 +13266,8 @@
       <c r="C308" t="s">
         <v>912</v>
       </c>
-      <c r="D308" t="s"/>
-    </row>
-    <row r="309" spans="1:4">
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>913</v>
       </c>
@@ -13279,7 +13281,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>916</v>
       </c>
@@ -13293,7 +13295,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>919</v>
       </c>
@@ -13307,7 +13309,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>922</v>
       </c>
@@ -13321,7 +13323,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>925</v>
       </c>
@@ -13335,7 +13337,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>928</v>
       </c>
@@ -13349,7 +13351,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>931</v>
       </c>
@@ -13363,7 +13365,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>934</v>
       </c>
@@ -13377,7 +13379,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>937</v>
       </c>
@@ -13391,7 +13393,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>940</v>
       </c>
@@ -13405,7 +13407,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>943</v>
       </c>
@@ -13419,7 +13421,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>946</v>
       </c>
@@ -13433,7 +13435,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>949</v>
       </c>
@@ -13447,7 +13449,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>952</v>
       </c>
@@ -13461,7 +13463,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>955</v>
       </c>
@@ -13475,7 +13477,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>958</v>
       </c>
@@ -13489,7 +13491,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>961</v>
       </c>
@@ -13503,7 +13505,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>964</v>
       </c>
@@ -13517,7 +13519,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>967</v>
       </c>
@@ -13531,7 +13533,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>970</v>
       </c>
@@ -13545,7 +13547,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>974</v>
       </c>
@@ -13559,7 +13561,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>977</v>
       </c>
@@ -13573,7 +13575,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>980</v>
       </c>
@@ -13587,7 +13589,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>983</v>
       </c>
@@ -13601,7 +13603,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>986</v>
       </c>
@@ -13615,7 +13617,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>989</v>
       </c>
@@ -13629,7 +13631,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>992</v>
       </c>
@@ -13643,7 +13645,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>995</v>
       </c>
@@ -13657,7 +13659,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>998</v>
       </c>
@@ -13671,7 +13673,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>1001</v>
       </c>
@@ -13685,7 +13687,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>1004</v>
       </c>
@@ -13699,7 +13701,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>1007</v>
       </c>
@@ -13713,7 +13715,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>1010</v>
       </c>
@@ -13727,7 +13729,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>1013</v>
       </c>
@@ -13741,7 +13743,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>1015</v>
       </c>
@@ -13755,7 +13757,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>1018</v>
       </c>
@@ -13769,7 +13771,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>1021</v>
       </c>
@@ -13783,7 +13785,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>1024</v>
       </c>
@@ -13797,7 +13799,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>1027</v>
       </c>
@@ -13811,7 +13813,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>1030</v>
       </c>
@@ -13825,7 +13827,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>1033</v>
       </c>
@@ -13839,7 +13841,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>1036</v>
       </c>
@@ -13853,7 +13855,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>1039</v>
       </c>
@@ -13867,7 +13869,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>1042</v>
       </c>
@@ -13881,7 +13883,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>1045</v>
       </c>
@@ -13895,7 +13897,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>1048</v>
       </c>
@@ -13909,7 +13911,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>1051</v>
       </c>
@@ -13923,7 +13925,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>1054</v>
       </c>
@@ -13937,7 +13939,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>1057</v>
       </c>
@@ -13951,7 +13953,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>1060</v>
       </c>
@@ -13965,7 +13967,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>1063</v>
       </c>
@@ -13979,7 +13981,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>1066</v>
       </c>
@@ -13993,7 +13995,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>1069</v>
       </c>
@@ -14007,7 +14009,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>1072</v>
       </c>
@@ -14021,7 +14023,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>1075</v>
       </c>
@@ -14035,7 +14037,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>1078</v>
       </c>
@@ -14049,7 +14051,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>1081</v>
       </c>
@@ -14063,7 +14065,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>1084</v>
       </c>
@@ -14077,7 +14079,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>1087</v>
       </c>
@@ -14091,7 +14093,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>1090</v>
       </c>
@@ -14105,7 +14107,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>1093</v>
       </c>
@@ -14119,7 +14121,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>1096</v>
       </c>
@@ -14133,7 +14135,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>1099</v>
       </c>
@@ -14147,7 +14149,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>1102</v>
       </c>
@@ -14161,7 +14163,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>1105</v>
       </c>
@@ -14175,7 +14177,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>1108</v>
       </c>
@@ -14189,7 +14191,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>1111</v>
       </c>
@@ -14203,7 +14205,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>1114</v>
       </c>
@@ -14217,7 +14219,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>1117</v>
       </c>
@@ -14231,7 +14233,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>1120</v>
       </c>
@@ -14245,7 +14247,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>1123</v>
       </c>
@@ -14259,7 +14261,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>1126</v>
       </c>
@@ -14273,7 +14275,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>1129</v>
       </c>
@@ -14287,7 +14289,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>1132</v>
       </c>
@@ -14301,7 +14303,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>1135</v>
       </c>
@@ -14315,7 +14317,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>1138</v>
       </c>
@@ -14329,7 +14331,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>1141</v>
       </c>
@@ -14343,7 +14345,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>1144</v>
       </c>
@@ -14357,7 +14359,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>1147</v>
       </c>
@@ -14371,7 +14373,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>1150</v>
       </c>
@@ -14385,7 +14387,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>1153</v>
       </c>
@@ -14399,7 +14401,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>1156</v>
       </c>
@@ -14413,7 +14415,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>1159</v>
       </c>
@@ -14427,7 +14429,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>1162</v>
       </c>
@@ -14441,7 +14443,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>1165</v>
       </c>
@@ -14455,7 +14457,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>1168</v>
       </c>
@@ -14469,7 +14471,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>1171</v>
       </c>
@@ -14483,7 +14485,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>1174</v>
       </c>
@@ -14497,7 +14499,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>1177</v>
       </c>
@@ -14511,7 +14513,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>1180</v>
       </c>
@@ -14525,7 +14527,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>1183</v>
       </c>
@@ -14539,7 +14541,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>1186</v>
       </c>
@@ -14553,7 +14555,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>1189</v>
       </c>
@@ -14567,7 +14569,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>1192</v>
       </c>
@@ -14577,9 +14579,8 @@
       <c r="C402" t="s">
         <v>1193</v>
       </c>
-      <c r="D402" t="s"/>
-    </row>
-    <row r="403" spans="1:4">
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>1194</v>
       </c>
@@ -14593,7 +14594,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>1197</v>
       </c>
@@ -14607,7 +14608,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>1200</v>
       </c>
@@ -14621,7 +14622,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>1203</v>
       </c>
@@ -14635,7 +14636,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>1206</v>
       </c>
@@ -14649,7 +14650,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>1209</v>
       </c>
@@ -14663,7 +14664,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>1212</v>
       </c>
@@ -14673,9 +14674,8 @@
       <c r="C409" t="s">
         <v>1213</v>
       </c>
-      <c r="D409" t="s"/>
-    </row>
-    <row r="410" spans="1:4">
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>1214</v>
       </c>
@@ -14685,9 +14685,8 @@
       <c r="C410" t="s">
         <v>1215</v>
       </c>
-      <c r="D410" t="s"/>
-    </row>
-    <row r="411" spans="1:4">
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>1216</v>
       </c>
@@ -14701,7 +14700,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>1219</v>
       </c>
@@ -14715,7 +14714,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>1222</v>
       </c>
@@ -14729,7 +14728,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>1225</v>
       </c>
@@ -14743,7 +14742,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>1228</v>
       </c>
@@ -14757,7 +14756,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>1231</v>
       </c>
@@ -14771,7 +14770,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>1234</v>
       </c>
@@ -14785,7 +14784,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>1237</v>
       </c>
@@ -14799,7 +14798,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>1240</v>
       </c>
@@ -14813,7 +14812,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>1243</v>
       </c>
@@ -14827,7 +14826,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>1246</v>
       </c>
@@ -14841,7 +14840,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>1249</v>
       </c>
@@ -14855,7 +14854,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>1252</v>
       </c>
@@ -14869,7 +14868,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>1255</v>
       </c>
@@ -14883,7 +14882,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>1258</v>
       </c>
@@ -14897,7 +14896,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>1261</v>
       </c>
@@ -14911,7 +14910,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>1264</v>
       </c>
@@ -14925,7 +14924,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>1267</v>
       </c>
@@ -14939,7 +14938,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>1270</v>
       </c>
@@ -14953,7 +14952,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>1273</v>
       </c>
@@ -14967,7 +14966,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>1276</v>
       </c>
@@ -14981,7 +14980,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>1279</v>
       </c>
@@ -14995,7 +14994,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>1282</v>
       </c>
@@ -15009,7 +15008,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>1285</v>
       </c>
@@ -15023,7 +15022,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>1289</v>
       </c>
@@ -15037,7 +15036,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>1292</v>
       </c>
@@ -15051,7 +15050,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>1295</v>
       </c>
@@ -15065,7 +15064,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>1298</v>
       </c>
@@ -15079,7 +15078,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>1301</v>
       </c>
@@ -15093,7 +15092,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>1304</v>
       </c>
@@ -15107,7 +15106,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>1307</v>
       </c>
@@ -15121,7 +15120,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>211</v>
       </c>
@@ -15135,7 +15134,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
         <v>1312</v>
       </c>
@@ -15149,7 +15148,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
         <v>1315</v>
       </c>
@@ -15163,7 +15162,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
         <v>1318</v>
       </c>
@@ -15177,7 +15176,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
         <v>1321</v>
       </c>
@@ -15191,7 +15190,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
         <v>1324</v>
       </c>
@@ -15205,7 +15204,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>1327</v>
       </c>
@@ -15219,7 +15218,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>1330</v>
       </c>
@@ -15233,7 +15232,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
         <v>1333</v>
       </c>
@@ -15247,7 +15246,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
         <v>1336</v>
       </c>
@@ -15261,7 +15260,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
         <v>1339</v>
       </c>
@@ -15275,7 +15274,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
         <v>1342</v>
       </c>
@@ -15289,7 +15288,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
         <v>1345</v>
       </c>
@@ -15303,7 +15302,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
         <v>1348</v>
       </c>
@@ -15317,7 +15316,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
         <v>1351</v>
       </c>
@@ -15331,7 +15330,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
         <v>1354</v>
       </c>
@@ -15345,7 +15344,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
         <v>1357</v>
       </c>
@@ -15359,7 +15358,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
         <v>1360</v>
       </c>
@@ -15373,7 +15372,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
         <v>1363</v>
       </c>
@@ -15387,7 +15386,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
         <v>1366</v>
       </c>
@@ -15401,7 +15400,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
         <v>1369</v>
       </c>
@@ -15415,7 +15414,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
         <v>1372</v>
       </c>
@@ -15429,7 +15428,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
         <v>1375</v>
       </c>
@@ -15443,7 +15442,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
         <v>1378</v>
       </c>
@@ -15457,7 +15456,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
         <v>1381</v>
       </c>
@@ -15471,7 +15470,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
         <v>1384</v>
       </c>
@@ -15485,7 +15484,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
         <v>1387</v>
       </c>
@@ -15499,7 +15498,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
         <v>1390</v>
       </c>
@@ -15513,7 +15512,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
         <v>1393</v>
       </c>
@@ -15527,7 +15526,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
         <v>1396</v>
       </c>
@@ -15541,7 +15540,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
         <v>1399</v>
       </c>
@@ -15555,7 +15554,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
         <v>1402</v>
       </c>
@@ -15569,7 +15568,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
         <v>1405</v>
       </c>
@@ -15583,7 +15582,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
         <v>1408</v>
       </c>
@@ -15597,7 +15596,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
         <v>1411</v>
       </c>
@@ -15611,7 +15610,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
         <v>1414</v>
       </c>
@@ -15625,7 +15624,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
         <v>1417</v>
       </c>
@@ -15639,7 +15638,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
         <v>1420</v>
       </c>
@@ -15653,7 +15652,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
         <v>1423</v>
       </c>
@@ -15667,7 +15666,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
         <v>1426</v>
       </c>
@@ -15681,7 +15680,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
         <v>1429</v>
       </c>
@@ -15695,7 +15694,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
         <v>1432</v>
       </c>
@@ -15709,7 +15708,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
         <v>1435</v>
       </c>
@@ -15723,7 +15722,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
         <v>1438</v>
       </c>
@@ -15737,7 +15736,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
         <v>1441</v>
       </c>
@@ -15751,7 +15750,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
         <v>1444</v>
       </c>
@@ -15765,7 +15764,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
         <v>1447</v>
       </c>
@@ -15779,7 +15778,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
         <v>1450</v>
       </c>
@@ -15793,7 +15792,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
         <v>1453</v>
       </c>
@@ -15807,7 +15806,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
         <v>1456</v>
       </c>
@@ -15821,7 +15820,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
         <v>1459</v>
       </c>
@@ -15835,7 +15834,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
         <v>1462</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
         <v>1465</v>
       </c>
@@ -15863,7 +15862,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
         <v>1468</v>
       </c>
@@ -15877,7 +15876,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
         <v>1471</v>
       </c>
@@ -15891,7 +15890,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
         <v>1474</v>
       </c>
@@ -15905,7 +15904,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
         <v>1477</v>
       </c>
@@ -15919,7 +15918,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
         <v>1480</v>
       </c>
@@ -15933,7 +15932,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
         <v>1483</v>
       </c>
@@ -15947,7 +15946,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
         <v>1486</v>
       </c>
@@ -15961,7 +15960,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
         <v>1489</v>
       </c>
@@ -15975,7 +15974,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
         <v>1492</v>
       </c>
@@ -15989,7 +15988,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
         <v>1495</v>
       </c>
@@ -16003,7 +16002,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
         <v>1498</v>
       </c>
@@ -16013,9 +16012,8 @@
       <c r="C505" t="s">
         <v>1499</v>
       </c>
-      <c r="D505" t="s"/>
-    </row>
-    <row r="506" spans="1:4">
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
         <v>1500</v>
       </c>
@@ -16029,7 +16027,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
         <v>1503</v>
       </c>
@@ -16043,7 +16041,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
         <v>1506</v>
       </c>
@@ -16057,7 +16055,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
         <v>1509</v>
       </c>
@@ -16071,7 +16069,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
         <v>1512</v>
       </c>
@@ -16085,7 +16083,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
         <v>1515</v>
       </c>
@@ -16099,7 +16097,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
         <v>1518</v>
       </c>
@@ -16113,7 +16111,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
         <v>1521</v>
       </c>
@@ -16127,7 +16125,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
         <v>1524</v>
       </c>
@@ -16137,9 +16135,8 @@
       <c r="C514" t="s">
         <v>1525</v>
       </c>
-      <c r="D514" t="s"/>
-    </row>
-    <row r="515" spans="1:4">
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
         <v>1526</v>
       </c>
@@ -16153,7 +16150,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
         <v>1529</v>
       </c>
@@ -16167,7 +16164,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
         <v>1532</v>
       </c>
@@ -16181,7 +16178,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
         <v>1535</v>
       </c>
@@ -16191,9 +16188,8 @@
       <c r="C518" t="s">
         <v>1536</v>
       </c>
-      <c r="D518" t="s"/>
-    </row>
-    <row r="519" spans="1:4">
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
         <v>1537</v>
       </c>
@@ -16207,7 +16203,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
         <v>1540</v>
       </c>
@@ -16217,9 +16213,8 @@
       <c r="C520" t="s">
         <v>1541</v>
       </c>
-      <c r="D520" t="s"/>
-    </row>
-    <row r="521" spans="1:4">
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
         <v>1542</v>
       </c>
@@ -16233,7 +16228,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
         <v>1545</v>
       </c>
@@ -16247,7 +16242,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
         <v>1548</v>
       </c>
@@ -16261,7 +16256,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
         <v>1551</v>
       </c>
@@ -16275,7 +16270,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
         <v>1554</v>
       </c>
@@ -16289,7 +16284,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
         <v>1557</v>
       </c>
@@ -16303,7 +16298,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
         <v>1560</v>
       </c>
@@ -16317,7 +16312,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
         <v>1563</v>
       </c>
@@ -16331,7 +16326,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
         <v>1566</v>
       </c>
@@ -16345,7 +16340,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
         <v>1569</v>
       </c>
@@ -16359,7 +16354,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
         <v>1572</v>
       </c>
@@ -16373,7 +16368,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
         <v>1575</v>
       </c>
@@ -16387,7 +16382,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
         <v>1578</v>
       </c>
@@ -16401,7 +16396,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
         <v>1581</v>
       </c>
@@ -16415,7 +16410,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
         <v>1584</v>
       </c>
@@ -16429,7 +16424,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
         <v>1587</v>
       </c>
@@ -16443,7 +16438,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
         <v>1590</v>
       </c>
@@ -16457,7 +16452,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
         <v>1593</v>
       </c>
@@ -16471,7 +16466,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
         <v>1596</v>
       </c>
@@ -16485,7 +16480,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
         <v>1599</v>
       </c>
@@ -16499,7 +16494,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
         <v>1603</v>
       </c>
@@ -16513,7 +16508,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
         <v>1606</v>
       </c>
@@ -16527,7 +16522,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
         <v>1609</v>
       </c>
@@ -16541,7 +16536,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
         <v>1612</v>
       </c>
@@ -16555,7 +16550,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
         <v>1615</v>
       </c>
@@ -16569,7 +16564,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
         <v>1618</v>
       </c>
@@ -16583,7 +16578,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
         <v>1621</v>
       </c>
@@ -16597,7 +16592,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
         <v>1624</v>
       </c>
@@ -16611,7 +16606,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
         <v>1627</v>
       </c>
@@ -16625,7 +16620,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
         <v>1630</v>
       </c>
@@ -16639,7 +16634,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
         <v>1633</v>
       </c>
@@ -16653,7 +16648,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
         <v>1636</v>
       </c>
@@ -16667,7 +16662,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
         <v>1639</v>
       </c>
@@ -16681,7 +16676,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
         <v>1642</v>
       </c>
@@ -16695,7 +16690,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
         <v>1645</v>
       </c>
@@ -16709,7 +16704,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
         <v>1648</v>
       </c>
@@ -16723,7 +16718,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
         <v>1651</v>
       </c>
@@ -16737,7 +16732,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
         <v>1654</v>
       </c>
@@ -16751,7 +16746,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
         <v>1657</v>
       </c>
@@ -16765,7 +16760,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
         <v>1660</v>
       </c>
@@ -16779,7 +16774,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
         <v>1663</v>
       </c>
@@ -16793,7 +16788,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
         <v>1666</v>
       </c>
@@ -16807,7 +16802,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
         <v>1669</v>
       </c>
@@ -16821,7 +16816,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
         <v>1672</v>
       </c>
@@ -16835,7 +16830,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
         <v>1675</v>
       </c>
@@ -16849,7 +16844,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
         <v>1678</v>
       </c>
@@ -16863,7 +16858,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
         <v>1681</v>
       </c>
@@ -16877,7 +16872,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
         <v>1684</v>
       </c>
@@ -16891,7 +16886,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
         <v>1687</v>
       </c>
@@ -16905,7 +16900,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
         <v>1690</v>
       </c>
@@ -16919,7 +16914,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
         <v>1693</v>
       </c>
@@ -16933,7 +16928,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
         <v>1696</v>
       </c>
@@ -16947,7 +16942,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
         <v>1699</v>
       </c>
@@ -16961,7 +16956,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
         <v>1702</v>
       </c>
@@ -16975,7 +16970,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
         <v>1705</v>
       </c>
@@ -16989,7 +16984,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
         <v>1708</v>
       </c>
@@ -17003,7 +16998,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
         <v>1711</v>
       </c>
@@ -17017,7 +17012,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
         <v>1714</v>
       </c>
@@ -17031,7 +17026,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
         <v>1717</v>
       </c>
@@ -17045,7 +17040,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
         <v>1720</v>
       </c>
@@ -17059,7 +17054,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
         <v>1723</v>
       </c>
@@ -17073,7 +17068,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
         <v>1726</v>
       </c>
@@ -17087,7 +17082,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
         <v>1729</v>
       </c>
@@ -17101,7 +17096,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
         <v>1732</v>
       </c>
@@ -17115,7 +17110,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
         <v>1735</v>
       </c>
@@ -17129,7 +17124,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
         <v>1738</v>
       </c>
@@ -17143,7 +17138,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
         <v>1741</v>
       </c>
@@ -17157,7 +17152,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
         <v>1744</v>
       </c>
@@ -17171,7 +17166,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
         <v>1747</v>
       </c>
@@ -17185,7 +17180,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
         <v>1750</v>
       </c>
@@ -17199,7 +17194,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
         <v>1753</v>
       </c>
@@ -17213,7 +17208,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
         <v>1756</v>
       </c>
@@ -17227,7 +17222,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
         <v>1759</v>
       </c>
@@ -17241,7 +17236,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
         <v>1762</v>
       </c>
@@ -17255,7 +17250,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
         <v>1765</v>
       </c>
@@ -17269,7 +17264,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
         <v>1768</v>
       </c>
@@ -17283,7 +17278,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
         <v>1771</v>
       </c>
@@ -17297,7 +17292,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
         <v>1774</v>
       </c>
@@ -17311,7 +17306,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
         <v>1777</v>
       </c>
@@ -17325,7 +17320,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
         <v>1780</v>
       </c>
@@ -17339,7 +17334,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
         <v>1783</v>
       </c>
@@ -17353,7 +17348,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
         <v>1786</v>
       </c>
@@ -17367,7 +17362,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
         <v>1789</v>
       </c>
@@ -17381,7 +17376,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
         <v>937</v>
       </c>
@@ -17395,7 +17390,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
         <v>1794</v>
       </c>
@@ -17409,7 +17404,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
         <v>1797</v>
       </c>
@@ -17423,7 +17418,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
         <v>1800</v>
       </c>
@@ -17437,7 +17432,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
         <v>1803</v>
       </c>
@@ -17451,7 +17446,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
         <v>1806</v>
       </c>
@@ -17465,7 +17460,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
         <v>1809</v>
       </c>
@@ -17479,7 +17474,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
         <v>1812</v>
       </c>
@@ -17493,7 +17488,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
         <v>1815</v>
       </c>
@@ -17507,7 +17502,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
         <v>1818</v>
       </c>
@@ -17521,7 +17516,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
         <v>1821</v>
       </c>
@@ -17531,9 +17526,8 @@
       <c r="C614" t="s">
         <v>1822</v>
       </c>
-      <c r="D614" t="s"/>
-    </row>
-    <row r="615" spans="1:4">
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
         <v>1823</v>
       </c>
@@ -17547,7 +17541,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
         <v>1826</v>
       </c>
@@ -17561,7 +17555,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
         <v>1829</v>
       </c>
@@ -17575,7 +17569,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
         <v>1832</v>
       </c>
@@ -17589,7 +17583,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
         <v>1835</v>
       </c>
@@ -17603,7 +17597,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
         <v>1838</v>
       </c>
@@ -17617,7 +17611,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
         <v>1841</v>
       </c>
@@ -17631,7 +17625,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
         <v>1844</v>
       </c>
@@ -17645,7 +17639,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
         <v>1847</v>
       </c>
@@ -17659,7 +17653,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
         <v>1850</v>
       </c>
@@ -17669,9 +17663,8 @@
       <c r="C624" t="s">
         <v>1851</v>
       </c>
-      <c r="D624" t="s"/>
-    </row>
-    <row r="625" spans="1:4">
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
         <v>1852</v>
       </c>
@@ -17685,7 +17678,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
         <v>1855</v>
       </c>
@@ -17699,7 +17692,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
         <v>1858</v>
       </c>
@@ -17713,7 +17706,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
         <v>1861</v>
       </c>
@@ -17723,9 +17716,8 @@
       <c r="C628" t="s">
         <v>1862</v>
       </c>
-      <c r="D628" t="s"/>
-    </row>
-    <row r="629" spans="1:4">
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
         <v>1863</v>
       </c>
@@ -17739,7 +17731,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
         <v>1866</v>
       </c>
@@ -17749,9 +17741,8 @@
       <c r="C630" t="s">
         <v>1867</v>
       </c>
-      <c r="D630" t="s"/>
-    </row>
-    <row r="631" spans="1:4">
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
         <v>1868</v>
       </c>
@@ -17761,9 +17752,8 @@
       <c r="C631" t="s">
         <v>1869</v>
       </c>
-      <c r="D631" t="s"/>
-    </row>
-    <row r="632" spans="1:4">
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
         <v>1870</v>
       </c>
@@ -17773,9 +17763,8 @@
       <c r="C632" t="s">
         <v>1871</v>
       </c>
-      <c r="D632" t="s"/>
-    </row>
-    <row r="633" spans="1:4">
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
         <v>1872</v>
       </c>
@@ -17785,9 +17774,8 @@
       <c r="C633" t="s">
         <v>1873</v>
       </c>
-      <c r="D633" t="s"/>
-    </row>
-    <row r="634" spans="1:4">
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
         <v>1874</v>
       </c>
@@ -17801,7 +17789,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
         <v>1877</v>
       </c>
@@ -17815,7 +17803,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
         <v>1880</v>
       </c>
@@ -17829,7 +17817,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
         <v>1883</v>
       </c>
@@ -17843,7 +17831,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
         <v>1886</v>
       </c>
@@ -17857,7 +17845,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
         <v>1889</v>
       </c>
@@ -17871,7 +17859,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
         <v>1892</v>
       </c>
@@ -17885,7 +17873,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
         <v>1895</v>
       </c>
@@ -17899,7 +17887,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
         <v>1898</v>
       </c>
@@ -17913,7 +17901,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
         <v>1901</v>
       </c>
@@ -17927,7 +17915,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
         <v>1904</v>
       </c>
@@ -17941,7 +17929,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
         <v>1907</v>
       </c>
@@ -17955,7 +17943,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
         <v>1910</v>
       </c>
@@ -17969,7 +17957,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
         <v>1913</v>
       </c>
@@ -17983,7 +17971,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
         <v>1916</v>
       </c>
@@ -17997,7 +17985,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
         <v>1919</v>
       </c>
@@ -18011,7 +17999,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
         <v>1922</v>
       </c>
@@ -18025,7 +18013,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
         <v>1925</v>
       </c>
@@ -18039,7 +18027,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
         <v>1928</v>
       </c>
@@ -18053,7 +18041,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
         <v>1931</v>
       </c>
@@ -18067,7 +18055,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
         <v>1934</v>
       </c>
@@ -18081,7 +18069,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
         <v>1937</v>
       </c>
@@ -18095,7 +18083,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
         <v>1940</v>
       </c>
@@ -18109,7 +18097,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
         <v>1943</v>
       </c>
@@ -18123,7 +18111,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
         <v>1947</v>
       </c>
@@ -18137,7 +18125,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
         <v>1950</v>
       </c>
@@ -18151,7 +18139,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
         <v>1953</v>
       </c>
@@ -18165,7 +18153,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
         <v>1956</v>
       </c>
@@ -18175,9 +18163,8 @@
       <c r="C661" t="s">
         <v>1957</v>
       </c>
-      <c r="D661" t="s"/>
-    </row>
-    <row r="662" spans="1:4">
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
         <v>1958</v>
       </c>
@@ -18187,9 +18174,8 @@
       <c r="C662" t="s">
         <v>1959</v>
       </c>
-      <c r="D662" t="s"/>
-    </row>
-    <row r="663" spans="1:4">
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
         <v>1960</v>
       </c>
@@ -18203,7 +18189,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
         <v>1963</v>
       </c>
@@ -18217,7 +18203,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
         <v>1966</v>
       </c>
@@ -18231,7 +18217,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
         <v>1969</v>
       </c>
@@ -18245,7 +18231,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
         <v>1972</v>
       </c>
@@ -18259,7 +18245,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
         <v>1975</v>
       </c>
@@ -18273,7 +18259,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
         <v>1978</v>
       </c>
@@ -18287,7 +18273,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
         <v>1981</v>
       </c>
@@ -18301,7 +18287,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A671" t="s">
         <v>1984</v>
       </c>
@@ -18315,7 +18301,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A672" t="s">
         <v>1987</v>
       </c>
@@ -18329,7 +18315,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A673" t="s">
         <v>1990</v>
       </c>
@@ -18343,7 +18329,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A674" t="s">
         <v>1993</v>
       </c>
@@ -18357,7 +18343,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
         <v>1996</v>
       </c>
@@ -18371,7 +18357,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
         <v>1999</v>
       </c>
@@ -18385,7 +18371,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
         <v>2002</v>
       </c>
@@ -18399,7 +18385,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
         <v>2005</v>
       </c>
@@ -18413,7 +18399,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
         <v>2008</v>
       </c>
@@ -18427,7 +18413,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
         <v>2011</v>
       </c>
@@ -18441,7 +18427,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
         <v>2014</v>
       </c>
@@ -18455,7 +18441,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
         <v>2017</v>
       </c>
@@ -18469,7 +18455,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
         <v>2020</v>
       </c>
@@ -18483,7 +18469,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
         <v>2023</v>
       </c>
@@ -18497,7 +18483,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A685" t="s">
         <v>2026</v>
       </c>
@@ -18511,7 +18497,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A686" t="s">
         <v>2029</v>
       </c>
@@ -18525,7 +18511,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A687" t="s">
         <v>2032</v>
       </c>
@@ -18539,7 +18525,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A688" t="s">
         <v>2035</v>
       </c>
@@ -18553,7 +18539,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A689" t="s">
         <v>2038</v>
       </c>
@@ -18567,7 +18553,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
         <v>2041</v>
       </c>
@@ -18581,7 +18567,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
         <v>2044</v>
       </c>
@@ -18595,7 +18581,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
         <v>2047</v>
       </c>
@@ -18609,7 +18595,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
         <v>2050</v>
       </c>
@@ -18623,7 +18609,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="694" spans="1:4">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
         <v>2053</v>
       </c>
@@ -18637,7 +18623,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
         <v>2056</v>
       </c>
@@ -18651,7 +18637,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
         <v>2059</v>
       </c>
@@ -18665,7 +18651,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
         <v>2062</v>
       </c>
@@ -18679,7 +18665,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
         <v>2065</v>
       </c>
@@ -18693,7 +18679,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
         <v>2068</v>
       </c>
@@ -18707,7 +18693,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
         <v>2071</v>
       </c>
@@ -18721,7 +18707,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
         <v>2074</v>
       </c>
@@ -18731,9 +18717,8 @@
       <c r="C701" t="s">
         <v>2075</v>
       </c>
-      <c r="D701" t="s"/>
-    </row>
-    <row r="702" spans="1:4">
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A702" t="s">
         <v>2076</v>
       </c>
@@ -18747,7 +18732,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
         <v>2079</v>
       </c>
@@ -18757,9 +18742,8 @@
       <c r="C703" t="s">
         <v>2080</v>
       </c>
-      <c r="D703" t="s"/>
-    </row>
-    <row r="704" spans="1:4">
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
         <v>2081</v>
       </c>
@@ -18769,9 +18753,8 @@
       <c r="C704" t="s">
         <v>2082</v>
       </c>
-      <c r="D704" t="s"/>
-    </row>
-    <row r="705" spans="1:4">
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A705" t="s">
         <v>2083</v>
       </c>
@@ -18785,7 +18768,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
         <v>2086</v>
       </c>
@@ -18795,9 +18778,8 @@
       <c r="C706" t="s">
         <v>2087</v>
       </c>
-      <c r="D706" t="s"/>
-    </row>
-    <row r="707" spans="1:4">
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
         <v>2088</v>
       </c>
@@ -18807,9 +18789,8 @@
       <c r="C707" t="s">
         <v>2089</v>
       </c>
-      <c r="D707" t="s"/>
-    </row>
-    <row r="708" spans="1:4">
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
         <v>2090</v>
       </c>
@@ -18823,7 +18804,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
         <v>2093</v>
       </c>
@@ -18837,7 +18818,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
         <v>2096</v>
       </c>
@@ -18851,7 +18832,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
         <v>2099</v>
       </c>
@@ -18865,7 +18846,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
         <v>2102</v>
       </c>
@@ -18879,7 +18860,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
         <v>2105</v>
       </c>
@@ -18893,7 +18874,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="714" spans="1:4">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
         <v>2108</v>
       </c>
@@ -18907,7 +18888,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
         <v>2111</v>
       </c>
@@ -18921,7 +18902,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
         <v>2114</v>
       </c>
@@ -18935,7 +18916,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A717" t="s">
         <v>2117</v>
       </c>
@@ -18949,7 +18930,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A718" t="s">
         <v>2120</v>
       </c>
@@ -18963,7 +18944,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="719" spans="1:4">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A719" t="s">
         <v>2123</v>
       </c>
@@ -18977,7 +18958,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A720" t="s">
         <v>2126</v>
       </c>
@@ -18991,7 +18972,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A721" t="s">
         <v>2129</v>
       </c>
@@ -19005,7 +18986,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A722" t="s">
         <v>2132</v>
       </c>
@@ -19019,7 +19000,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A723" t="s">
         <v>2135</v>
       </c>
@@ -19033,7 +19014,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A724" t="s">
         <v>2138</v>
       </c>
@@ -19047,7 +19028,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A725" t="s">
         <v>2141</v>
       </c>
@@ -19061,7 +19042,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A726" t="s">
         <v>2144</v>
       </c>
@@ -19075,7 +19056,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A727" t="s">
         <v>2147</v>
       </c>
@@ -19089,7 +19070,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A728" t="s">
         <v>2150</v>
       </c>
@@ -19103,7 +19084,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A729" t="s">
         <v>2153</v>
       </c>
@@ -19117,7 +19098,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A730" t="s">
         <v>2156</v>
       </c>
@@ -19131,7 +19112,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A731" t="s">
         <v>2159</v>
       </c>
@@ -19145,7 +19126,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A732" t="s">
         <v>2162</v>
       </c>
@@ -19159,7 +19140,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A733" t="s">
         <v>2165</v>
       </c>
@@ -19173,7 +19154,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A734" t="s">
         <v>2168</v>
       </c>
@@ -19187,7 +19168,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A735" t="s">
         <v>2171</v>
       </c>
@@ -19201,7 +19182,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A736" t="s">
         <v>2174</v>
       </c>
@@ -19215,7 +19196,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A737" t="s">
         <v>2177</v>
       </c>
@@ -19229,7 +19210,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="738" spans="1:4">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A738" t="s">
         <v>2180</v>
       </c>
@@ -19243,7 +19224,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A739" t="s">
         <v>2183</v>
       </c>
@@ -19257,7 +19238,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="740" spans="1:4">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A740" t="s">
         <v>2186</v>
       </c>
@@ -19271,7 +19252,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="741" spans="1:4">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A741" t="s">
         <v>2189</v>
       </c>
@@ -19285,7 +19266,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A742" t="s">
         <v>2192</v>
       </c>
@@ -19299,7 +19280,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="743" spans="1:4">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A743" t="s">
         <v>2195</v>
       </c>
@@ -19313,7 +19294,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="744" spans="1:4">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A744" t="s">
         <v>2198</v>
       </c>
@@ -19323,9 +19304,8 @@
       <c r="C744" t="s">
         <v>2199</v>
       </c>
-      <c r="D744" t="s"/>
-    </row>
-    <row r="745" spans="1:4">
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A745" t="s">
         <v>2200</v>
       </c>
@@ -19335,9 +19315,8 @@
       <c r="C745" t="s">
         <v>2201</v>
       </c>
-      <c r="D745" t="s"/>
-    </row>
-    <row r="746" spans="1:4">
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A746" t="s">
         <v>2202</v>
       </c>
@@ -19347,9 +19326,8 @@
       <c r="C746" t="s">
         <v>2203</v>
       </c>
-      <c r="D746" t="s"/>
-    </row>
-    <row r="747" spans="1:4">
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A747" t="s">
         <v>2204</v>
       </c>
@@ -19359,9 +19337,8 @@
       <c r="C747" t="s">
         <v>2205</v>
       </c>
-      <c r="D747" t="s"/>
-    </row>
-    <row r="748" spans="1:4">
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A748" t="s">
         <v>2206</v>
       </c>
@@ -19375,7 +19352,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A749" t="s">
         <v>2209</v>
       </c>
@@ -19389,7 +19366,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="750" spans="1:4">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A750" t="s">
         <v>2212</v>
       </c>
@@ -19399,9 +19376,8 @@
       <c r="C750" t="s">
         <v>2213</v>
       </c>
-      <c r="D750" t="s"/>
-    </row>
-    <row r="751" spans="1:4">
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A751" t="s">
         <v>2214</v>
       </c>
@@ -19415,7 +19391,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="752" spans="1:4">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A752" t="s">
         <v>2217</v>
       </c>
@@ -19429,7 +19405,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A753" t="s">
         <v>2220</v>
       </c>
@@ -19443,7 +19419,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A754" t="s">
         <v>2223</v>
       </c>
@@ -19457,7 +19433,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A755" t="s">
         <v>2226</v>
       </c>
@@ -19471,7 +19447,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A756" t="s">
         <v>2229</v>
       </c>
@@ -19485,7 +19461,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A757" t="s">
         <v>2232</v>
       </c>
@@ -19495,9 +19471,8 @@
       <c r="C757" t="s">
         <v>2233</v>
       </c>
-      <c r="D757" t="s"/>
-    </row>
-    <row r="758" spans="1:4">
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A758" t="s">
         <v>2234</v>
       </c>
@@ -19511,7 +19486,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
         <v>2237</v>
       </c>
@@ -19525,7 +19500,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="760" spans="1:4">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
         <v>2240</v>
       </c>
@@ -19539,7 +19514,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
         <v>2243</v>
       </c>
@@ -19553,7 +19528,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
         <v>2246</v>
       </c>
@@ -19563,9 +19538,8 @@
       <c r="C762" t="s">
         <v>2247</v>
       </c>
-      <c r="D762" t="s"/>
-    </row>
-    <row r="763" spans="1:4">
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
         <v>2248</v>
       </c>
@@ -19575,9 +19549,8 @@
       <c r="C763" t="s">
         <v>2249</v>
       </c>
-      <c r="D763" t="s"/>
-    </row>
-    <row r="764" spans="1:4">
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
         <v>2250</v>
       </c>
@@ -19587,9 +19560,8 @@
       <c r="C764" t="s">
         <v>2251</v>
       </c>
-      <c r="D764" t="s"/>
-    </row>
-    <row r="765" spans="1:4">
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A765" t="s">
         <v>2252</v>
       </c>
@@ -19599,9 +19571,8 @@
       <c r="C765" t="s">
         <v>2253</v>
       </c>
-      <c r="D765" t="s"/>
-    </row>
-    <row r="766" spans="1:4">
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A766" t="s">
         <v>2254</v>
       </c>
@@ -19611,9 +19582,8 @@
       <c r="C766" t="s">
         <v>2255</v>
       </c>
-      <c r="D766" t="s"/>
-    </row>
-    <row r="767" spans="1:4">
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A767" t="s">
         <v>2256</v>
       </c>
@@ -19627,7 +19597,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
         <v>2259</v>
       </c>
@@ -19641,7 +19611,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
         <v>2262</v>
       </c>
@@ -19655,7 +19625,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A770" t="s">
         <v>2265</v>
       </c>
@@ -19669,7 +19639,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A771" t="s">
         <v>2268</v>
       </c>
@@ -19679,9 +19649,8 @@
       <c r="C771" t="s">
         <v>2269</v>
       </c>
-      <c r="D771" t="s"/>
-    </row>
-    <row r="772" spans="1:4">
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A772" t="s">
         <v>2270</v>
       </c>
@@ -19695,7 +19664,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A773" t="s">
         <v>2273</v>
       </c>
@@ -19709,7 +19678,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="774" spans="1:4">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A774" t="s">
         <v>2276</v>
       </c>
@@ -19723,7 +19692,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="775" spans="1:4">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A775" t="s">
         <v>2279</v>
       </c>
@@ -19737,7 +19706,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A776" t="s">
         <v>2282</v>
       </c>
@@ -19751,7 +19720,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="777" spans="1:4">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A777" t="s">
         <v>2285</v>
       </c>
@@ -19765,7 +19734,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="778" spans="1:4">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A778" t="s">
         <v>2288</v>
       </c>
@@ -19779,7 +19748,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="779" spans="1:4">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A779" t="s">
         <v>2291</v>
       </c>
@@ -19793,7 +19762,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="780" spans="1:4">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A780" t="s">
         <v>2294</v>
       </c>
@@ -19807,7 +19776,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="781" spans="1:4">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A781" t="s">
         <v>2297</v>
       </c>
@@ -19821,7 +19790,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="782" spans="1:4">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A782" t="s">
         <v>2300</v>
       </c>
@@ -19835,7 +19804,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="783" spans="1:4">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A783" t="s">
         <v>2303</v>
       </c>
@@ -19849,7 +19818,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A784" t="s">
         <v>2306</v>
       </c>
@@ -19863,7 +19832,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A785" t="s">
         <v>2309</v>
       </c>
@@ -19877,7 +19846,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="786" spans="1:4">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A786" t="s">
         <v>2312</v>
       </c>
@@ -19891,7 +19860,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A787" t="s">
         <v>2315</v>
       </c>
@@ -19905,7 +19874,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A788" t="s">
         <v>2318</v>
       </c>
@@ -19919,7 +19888,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="789" spans="1:4">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A789" t="s">
         <v>2321</v>
       </c>
@@ -19933,7 +19902,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="790" spans="1:4">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A790" t="s">
         <v>2324</v>
       </c>
@@ -19947,7 +19916,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="791" spans="1:4">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A791" t="s">
         <v>2327</v>
       </c>
@@ -19961,7 +19930,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="792" spans="1:4">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A792" t="s">
         <v>2330</v>
       </c>
@@ -19975,7 +19944,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A793" t="s">
         <v>2333</v>
       </c>
@@ -19989,7 +19958,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="794" spans="1:4">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A794" t="s">
         <v>2336</v>
       </c>
@@ -20003,7 +19972,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A795" t="s">
         <v>2339</v>
       </c>
@@ -20017,7 +19986,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A796" t="s">
         <v>2342</v>
       </c>
@@ -20031,7 +20000,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="797" spans="1:4">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A797" t="s">
         <v>2345</v>
       </c>
@@ -20045,7 +20014,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="798" spans="1:4">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A798" t="s">
         <v>2348</v>
       </c>
@@ -20059,7 +20028,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A799" t="s">
         <v>2351</v>
       </c>
@@ -20073,7 +20042,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="800" spans="1:4">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A800" t="s">
         <v>2354</v>
       </c>
@@ -20087,7 +20056,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="801" spans="1:4">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A801" t="s">
         <v>2357</v>
       </c>
@@ -20101,7 +20070,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="802" spans="1:4">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A802" t="s">
         <v>2360</v>
       </c>
@@ -20115,7 +20084,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="803" spans="1:4">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A803" t="s">
         <v>2363</v>
       </c>
@@ -20129,7 +20098,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="804" spans="1:4">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A804" t="s">
         <v>2367</v>
       </c>
@@ -20143,7 +20112,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="805" spans="1:4">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A805" t="s">
         <v>2370</v>
       </c>
@@ -20157,7 +20126,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="806" spans="1:4">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A806" t="s">
         <v>2373</v>
       </c>
@@ -20171,7 +20140,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="807" spans="1:4">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A807" t="s">
         <v>2376</v>
       </c>
@@ -20185,7 +20154,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="808" spans="1:4">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A808" t="s">
         <v>2379</v>
       </c>
@@ -20199,7 +20168,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="809" spans="1:4">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A809" t="s">
         <v>2382</v>
       </c>
@@ -20213,7 +20182,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="810" spans="1:4">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A810" t="s">
         <v>2385</v>
       </c>
@@ -20227,7 +20196,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="811" spans="1:4">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A811" t="s">
         <v>2388</v>
       </c>
@@ -20241,7 +20210,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="812" spans="1:4">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A812" t="s">
         <v>2391</v>
       </c>
@@ -20255,7 +20224,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="813" spans="1:4">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A813" t="s">
         <v>2394</v>
       </c>
@@ -20269,7 +20238,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="814" spans="1:4">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A814" t="s">
         <v>2397</v>
       </c>
@@ -20283,7 +20252,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="815" spans="1:4">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A815" t="s">
         <v>2400</v>
       </c>
@@ -20297,7 +20266,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="816" spans="1:4">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A816" t="s">
         <v>2403</v>
       </c>
@@ -20311,7 +20280,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="817" spans="1:4">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A817" t="s">
         <v>2406</v>
       </c>
@@ -20325,7 +20294,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="818" spans="1:4">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A818" t="s">
         <v>2409</v>
       </c>
@@ -20339,7 +20308,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="819" spans="1:4">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A819" t="s">
         <v>2412</v>
       </c>
@@ -20353,7 +20322,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="820" spans="1:4">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A820" t="s">
         <v>2415</v>
       </c>
@@ -20367,7 +20336,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="821" spans="1:4">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A821" t="s">
         <v>2418</v>
       </c>
@@ -20381,7 +20350,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="822" spans="1:4">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A822" t="s">
         <v>2421</v>
       </c>
@@ -20395,7 +20364,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="823" spans="1:4">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A823" t="s">
         <v>2424</v>
       </c>
@@ -20409,7 +20378,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="824" spans="1:4">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A824" t="s">
         <v>2427</v>
       </c>
@@ -20423,7 +20392,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="825" spans="1:4">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A825" t="s">
         <v>2430</v>
       </c>
@@ -20437,7 +20406,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="826" spans="1:4">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A826" t="s">
         <v>2433</v>
       </c>
@@ -20451,7 +20420,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="827" spans="1:4">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A827" t="s">
         <v>2436</v>
       </c>
@@ -20465,7 +20434,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="828" spans="1:4">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A828" t="s">
         <v>2439</v>
       </c>
@@ -20479,7 +20448,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="829" spans="1:4">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A829" t="s">
         <v>2442</v>
       </c>
@@ -20493,7 +20462,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="830" spans="1:4">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A830" t="s">
         <v>2445</v>
       </c>
@@ -20507,7 +20476,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="831" spans="1:4">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A831" t="s">
         <v>2448</v>
       </c>
@@ -20517,9 +20486,8 @@
       <c r="C831" t="s">
         <v>2449</v>
       </c>
-      <c r="D831" t="s"/>
-    </row>
-    <row r="832" spans="1:4">
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A832" t="s">
         <v>2450</v>
       </c>
@@ -20529,9 +20497,8 @@
       <c r="C832" t="s">
         <v>2451</v>
       </c>
-      <c r="D832" t="s"/>
-    </row>
-    <row r="833" spans="1:4">
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A833" t="s">
         <v>2452</v>
       </c>
@@ -20545,7 +20512,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="834" spans="1:4">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A834" t="s">
         <v>2455</v>
       </c>
@@ -20559,7 +20526,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="835" spans="1:4">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A835" t="s">
         <v>2458</v>
       </c>
@@ -20569,9 +20536,8 @@
       <c r="C835" t="s">
         <v>2459</v>
       </c>
-      <c r="D835" t="s"/>
-    </row>
-    <row r="836" spans="1:4">
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A836" t="s">
         <v>2460</v>
       </c>
@@ -20581,9 +20547,8 @@
       <c r="C836" t="s">
         <v>2461</v>
       </c>
-      <c r="D836" t="s"/>
-    </row>
-    <row r="837" spans="1:4">
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A837" t="s">
         <v>2462</v>
       </c>
@@ -20593,9 +20558,8 @@
       <c r="C837" t="s">
         <v>2463</v>
       </c>
-      <c r="D837" t="s"/>
-    </row>
-    <row r="838" spans="1:4">
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A838" t="s">
         <v>2464</v>
       </c>
@@ -20609,7 +20573,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="839" spans="1:4">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A839" t="s">
         <v>2467</v>
       </c>
@@ -20623,7 +20587,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="840" spans="1:4">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A840" t="s">
         <v>2470</v>
       </c>
@@ -20637,7 +20601,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="841" spans="1:4">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A841" t="s">
         <v>2473</v>
       </c>
@@ -20651,7 +20615,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="842" spans="1:4">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A842" t="s">
         <v>2476</v>
       </c>
@@ -20665,7 +20629,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="843" spans="1:4">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A843" t="s">
         <v>2479</v>
       </c>
@@ -20679,7 +20643,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="844" spans="1:4">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A844" t="s">
         <v>2482</v>
       </c>
@@ -20693,7 +20657,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="845" spans="1:4">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A845" t="s">
         <v>2485</v>
       </c>
@@ -20707,7 +20671,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="846" spans="1:4">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A846" t="s">
         <v>2488</v>
       </c>
@@ -20721,7 +20685,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="847" spans="1:4">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A847" t="s">
         <v>2491</v>
       </c>
@@ -20735,7 +20699,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="848" spans="1:4">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A848" t="s">
         <v>2494</v>
       </c>
@@ -20749,7 +20713,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="849" spans="1:4">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A849" t="s">
         <v>2497</v>
       </c>
@@ -20763,7 +20727,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="850" spans="1:4">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A850" t="s">
         <v>2499</v>
       </c>
@@ -20777,7 +20741,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="851" spans="1:4">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A851" t="s">
         <v>2502</v>
       </c>
@@ -20791,7 +20755,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="852" spans="1:4">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A852" t="s">
         <v>2505</v>
       </c>
@@ -20805,7 +20769,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="853" spans="1:4">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A853" t="s">
         <v>2508</v>
       </c>
@@ -20819,7 +20783,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="854" spans="1:4">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A854" t="s">
         <v>2511</v>
       </c>
@@ -20833,7 +20797,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="855" spans="1:4">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A855" t="s">
         <v>2514</v>
       </c>
@@ -20847,7 +20811,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="856" spans="1:4">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A856" t="s">
         <v>2517</v>
       </c>
@@ -20861,7 +20825,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="857" spans="1:4">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A857" t="s">
         <v>2520</v>
       </c>
@@ -20875,7 +20839,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="858" spans="1:4">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A858" t="s">
         <v>2523</v>
       </c>
@@ -20889,7 +20853,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="859" spans="1:4">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A859" t="s">
         <v>2526</v>
       </c>
@@ -20903,7 +20867,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="860" spans="1:4">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A860" t="s">
         <v>2529</v>
       </c>
@@ -20917,7 +20881,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="861" spans="1:4">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A861" t="s">
         <v>2532</v>
       </c>
@@ -20931,7 +20895,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="862" spans="1:4">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A862" t="s">
         <v>2535</v>
       </c>
@@ -20945,7 +20909,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="863" spans="1:4">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A863" t="s">
         <v>2538</v>
       </c>
@@ -20959,7 +20923,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="864" spans="1:4">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A864" t="s">
         <v>2541</v>
       </c>
@@ -20973,7 +20937,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="865" spans="1:4">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A865" t="s">
         <v>2544</v>
       </c>
@@ -20987,7 +20951,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="866" spans="1:4">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A866" t="s">
         <v>2547</v>
       </c>
@@ -21001,7 +20965,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="867" spans="1:4">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A867" t="s">
         <v>2550</v>
       </c>
@@ -21015,7 +20979,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="868" spans="1:4">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A868" t="s">
         <v>2553</v>
       </c>
@@ -21029,7 +20993,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="869" spans="1:4">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A869" t="s">
         <v>2556</v>
       </c>
@@ -21043,7 +21007,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="870" spans="1:4">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A870" t="s">
         <v>2559</v>
       </c>
@@ -21057,7 +21021,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="871" spans="1:4">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A871" t="s">
         <v>2562</v>
       </c>
@@ -21071,7 +21035,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="872" spans="1:4">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A872" t="s">
         <v>2565</v>
       </c>
@@ -21085,7 +21049,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="873" spans="1:4">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A873" t="s">
         <v>2568</v>
       </c>
@@ -21099,7 +21063,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="874" spans="1:4">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A874" t="s">
         <v>2571</v>
       </c>
@@ -21113,7 +21077,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="875" spans="1:4">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A875" t="s">
         <v>2574</v>
       </c>
@@ -21127,7 +21091,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="876" spans="1:4">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A876" t="s">
         <v>2577</v>
       </c>
@@ -21141,7 +21105,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="877" spans="1:4">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A877" t="s">
         <v>2580</v>
       </c>
@@ -21155,7 +21119,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="878" spans="1:4">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A878" t="s">
         <v>2583</v>
       </c>
@@ -21169,7 +21133,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="879" spans="1:4">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A879" t="s">
         <v>2586</v>
       </c>
@@ -21183,7 +21147,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="880" spans="1:4">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A880" t="s">
         <v>2589</v>
       </c>
@@ -21197,7 +21161,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="881" spans="1:4">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A881" t="s">
         <v>2592</v>
       </c>
@@ -21211,7 +21175,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="882" spans="1:4">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A882" t="s">
         <v>2595</v>
       </c>
@@ -21225,7 +21189,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="883" spans="1:4">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A883" t="s">
         <v>2598</v>
       </c>
@@ -21239,7 +21203,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="884" spans="1:4">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A884" t="s">
         <v>2601</v>
       </c>
@@ -21253,7 +21217,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="885" spans="1:4">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A885" t="s">
         <v>2604</v>
       </c>
@@ -21267,7 +21231,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="886" spans="1:4">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A886" t="s">
         <v>2607</v>
       </c>
@@ -21281,7 +21245,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="887" spans="1:4">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A887" t="s">
         <v>2610</v>
       </c>
@@ -21295,7 +21259,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="888" spans="1:4">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A888" t="s">
         <v>2613</v>
       </c>
@@ -21309,7 +21273,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="889" spans="1:4">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A889" t="s">
         <v>2616</v>
       </c>
@@ -21323,7 +21287,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="890" spans="1:4">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A890" t="s">
         <v>2619</v>
       </c>
@@ -21337,7 +21301,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="891" spans="1:4">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A891" t="s">
         <v>2622</v>
       </c>
@@ -21351,7 +21315,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="892" spans="1:4">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A892" t="s">
         <v>2625</v>
       </c>
@@ -21365,7 +21329,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="893" spans="1:4">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A893" t="s">
         <v>2628</v>
       </c>
@@ -21379,7 +21343,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="894" spans="1:4">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A894" t="s">
         <v>2631</v>
       </c>
@@ -21389,9 +21353,8 @@
       <c r="C894" t="s">
         <v>2632</v>
       </c>
-      <c r="D894" t="s"/>
-    </row>
-    <row r="895" spans="1:4">
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A895" t="s">
         <v>2633</v>
       </c>
@@ -21405,7 +21368,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="896" spans="1:4">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A896" t="s">
         <v>2636</v>
       </c>
@@ -21419,7 +21382,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="897" spans="1:4">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A897" t="s">
         <v>2639</v>
       </c>
@@ -21429,9 +21392,8 @@
       <c r="C897" t="s">
         <v>2640</v>
       </c>
-      <c r="D897" t="s"/>
-    </row>
-    <row r="898" spans="1:4">
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A898" t="s">
         <v>2641</v>
       </c>
@@ -21445,7 +21407,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="899" spans="1:4">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A899" t="s">
         <v>2644</v>
       </c>
@@ -21459,7 +21421,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="900" spans="1:4">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A900" t="s">
         <v>2647</v>
       </c>
@@ -21469,9 +21431,8 @@
       <c r="C900" t="s">
         <v>2648</v>
       </c>
-      <c r="D900" t="s"/>
-    </row>
-    <row r="901" spans="1:4">
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A901" t="s">
         <v>2649</v>
       </c>
@@ -21485,7 +21446,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="902" spans="1:4">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A902" t="s">
         <v>2652</v>
       </c>
@@ -21499,7 +21460,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="903" spans="1:4">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A903" t="s">
         <v>2655</v>
       </c>
@@ -21513,7 +21474,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="904" spans="1:4">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A904" t="s">
         <v>2658</v>
       </c>
@@ -21527,7 +21488,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="905" spans="1:4">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A905" t="s">
         <v>2661</v>
       </c>
@@ -21541,7 +21502,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="906" spans="1:4">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A906" t="s">
         <v>2664</v>
       </c>
@@ -21555,7 +21516,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="907" spans="1:4">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A907" t="s">
         <v>2667</v>
       </c>
@@ -21569,7 +21530,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="908" spans="1:4">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A908" t="s">
         <v>2670</v>
       </c>
@@ -21583,7 +21544,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="909" spans="1:4">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A909" t="s">
         <v>2673</v>
       </c>
@@ -21597,7 +21558,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="910" spans="1:4">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A910" t="s">
         <v>2676</v>
       </c>
@@ -21611,7 +21572,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="911" spans="1:4">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A911" t="s">
         <v>2679</v>
       </c>
@@ -21625,7 +21586,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="912" spans="1:4">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A912" t="s">
         <v>2682</v>
       </c>
@@ -21639,7 +21600,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="913" spans="1:4">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A913" t="s">
         <v>2685</v>
       </c>
@@ -21653,7 +21614,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="914" spans="1:4">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A914" t="s">
         <v>2688</v>
       </c>
@@ -21667,7 +21628,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="915" spans="1:4">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A915" t="s">
         <v>2691</v>
       </c>
@@ -21681,7 +21642,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="916" spans="1:4">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A916" t="s">
         <v>2694</v>
       </c>
@@ -21695,7 +21656,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="917" spans="1:4">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A917" t="s">
         <v>2697</v>
       </c>
@@ -21709,7 +21670,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="918" spans="1:4">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A918" t="s">
         <v>2700</v>
       </c>
@@ -21719,9 +21680,8 @@
       <c r="C918" t="s">
         <v>2701</v>
       </c>
-      <c r="D918" t="s"/>
-    </row>
-    <row r="919" spans="1:4">
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A919" t="s">
         <v>2702</v>
       </c>
@@ -21735,7 +21695,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="920" spans="1:4">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A920" t="s">
         <v>2705</v>
       </c>
@@ -21749,7 +21709,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="921" spans="1:4">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A921" t="s">
         <v>2708</v>
       </c>
@@ -21763,7 +21723,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="922" spans="1:4">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A922" t="s">
         <v>2711</v>
       </c>
@@ -21777,7 +21737,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="923" spans="1:4">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A923" t="s">
         <v>2714</v>
       </c>
@@ -21791,7 +21751,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="924" spans="1:4">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A924" t="s">
         <v>2717</v>
       </c>
@@ -21805,7 +21765,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="925" spans="1:4">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A925" t="s">
         <v>2720</v>
       </c>
@@ -21819,7 +21779,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="926" spans="1:4">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A926" t="s">
         <v>2723</v>
       </c>
@@ -21833,7 +21793,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="927" spans="1:4">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A927" t="s">
         <v>2726</v>
       </c>
@@ -21847,7 +21807,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="928" spans="1:4">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A928" t="s">
         <v>2729</v>
       </c>
@@ -21861,7 +21821,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="929" spans="1:4">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A929" t="s">
         <v>2732</v>
       </c>
@@ -21875,7 +21835,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="930" spans="1:4">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A930" t="s">
         <v>2735</v>
       </c>
@@ -21889,7 +21849,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="931" spans="1:4">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A931" t="s">
         <v>2738</v>
       </c>
@@ -21903,7 +21863,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="932" spans="1:4">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A932" t="s">
         <v>2741</v>
       </c>
@@ -21917,7 +21877,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="933" spans="1:4">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A933" t="s">
         <v>2744</v>
       </c>
@@ -21931,7 +21891,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="934" spans="1:4">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A934" t="s">
         <v>2747</v>
       </c>
@@ -21945,7 +21905,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="935" spans="1:4">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A935" t="s">
         <v>2750</v>
       </c>
@@ -21959,7 +21919,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="936" spans="1:4">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A936" t="s">
         <v>2753</v>
       </c>
@@ -21973,7 +21933,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="937" spans="1:4">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A937" t="s">
         <v>2756</v>
       </c>
@@ -21987,7 +21947,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="938" spans="1:4">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A938" t="s">
         <v>2759</v>
       </c>
@@ -22001,7 +21961,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="939" spans="1:4">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A939" t="s">
         <v>2762</v>
       </c>
@@ -22015,7 +21975,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="940" spans="1:4">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A940" t="s">
         <v>2765</v>
       </c>
@@ -22029,7 +21989,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="941" spans="1:4">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A941" t="s">
         <v>2768</v>
       </c>
@@ -22043,7 +22003,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="942" spans="1:4">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A942" t="s">
         <v>2771</v>
       </c>
@@ -22057,7 +22017,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="943" spans="1:4">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A943" t="s">
         <v>2774</v>
       </c>
@@ -22071,7 +22031,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="944" spans="1:4">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A944" t="s">
         <v>2777</v>
       </c>
@@ -22085,7 +22045,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="945" spans="1:4">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A945" t="s">
         <v>2780</v>
       </c>
@@ -22099,7 +22059,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="946" spans="1:4">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A946" t="s">
         <v>2783</v>
       </c>
@@ -22113,7 +22073,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="947" spans="1:4">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A947" t="s">
         <v>2786</v>
       </c>
@@ -22127,7 +22087,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="948" spans="1:4">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A948" t="s">
         <v>2789</v>
       </c>
@@ -22141,7 +22101,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="949" spans="1:4">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A949" t="s">
         <v>2792</v>
       </c>
@@ -22155,7 +22115,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="950" spans="1:4">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A950" t="s">
         <v>2795</v>
       </c>
@@ -22169,7 +22129,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="951" spans="1:4">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A951" t="s">
         <v>2798</v>
       </c>
@@ -22183,7 +22143,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="952" spans="1:4">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A952" t="s">
         <v>2801</v>
       </c>
@@ -22197,7 +22157,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="953" spans="1:4">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A953" t="s">
         <v>2805</v>
       </c>
@@ -22211,7 +22171,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="954" spans="1:4">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A954" t="s">
         <v>2808</v>
       </c>
@@ -22225,7 +22185,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="955" spans="1:4">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A955" t="s">
         <v>2811</v>
       </c>
@@ -22239,7 +22199,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="956" spans="1:4">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A956" t="s">
         <v>2814</v>
       </c>
@@ -22253,7 +22213,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="957" spans="1:4">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A957" t="s">
         <v>2817</v>
       </c>
@@ -22267,7 +22227,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="958" spans="1:4">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A958" t="s">
         <v>2820</v>
       </c>
@@ -22281,7 +22241,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="959" spans="1:4">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A959" t="s">
         <v>2823</v>
       </c>
@@ -22295,7 +22255,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="960" spans="1:4">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A960" t="s">
         <v>2826</v>
       </c>
@@ -22309,7 +22269,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="961" spans="1:4">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A961" t="s">
         <v>2829</v>
       </c>
@@ -22323,7 +22283,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="962" spans="1:4">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A962" t="s">
         <v>2832</v>
       </c>
@@ -22337,7 +22297,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="963" spans="1:4">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A963" t="s">
         <v>2835</v>
       </c>
@@ -22351,7 +22311,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="964" spans="1:4">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A964" t="s">
         <v>2838</v>
       </c>
@@ -22365,7 +22325,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="965" spans="1:4">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A965" t="s">
         <v>2841</v>
       </c>
@@ -22379,7 +22339,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="966" spans="1:4">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A966" t="s">
         <v>2844</v>
       </c>
@@ -22393,7 +22353,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="967" spans="1:4">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A967" t="s">
         <v>2847</v>
       </c>
@@ -22407,7 +22367,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="968" spans="1:4">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A968" t="s">
         <v>2850</v>
       </c>
@@ -22421,7 +22381,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="969" spans="1:4">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A969" t="s">
         <v>2853</v>
       </c>
@@ -22435,7 +22395,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="970" spans="1:4">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A970" t="s">
         <v>2856</v>
       </c>
@@ -22449,7 +22409,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="971" spans="1:4">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A971" t="s">
         <v>2859</v>
       </c>
@@ -22463,7 +22423,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="972" spans="1:4">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A972" t="s">
         <v>2862</v>
       </c>
@@ -22477,7 +22437,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="973" spans="1:4">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A973" t="s">
         <v>2865</v>
       </c>
@@ -22491,7 +22451,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="974" spans="1:4">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A974" t="s">
         <v>2868</v>
       </c>
@@ -22505,7 +22465,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="975" spans="1:4">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A975" t="s">
         <v>2871</v>
       </c>
@@ -22519,7 +22479,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="976" spans="1:4">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A976" t="s">
         <v>2874</v>
       </c>
@@ -22534,24 +22494,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>